--- a/output/plannet-PlanNet-InsurancePlan.xlsx
+++ b/output/plannet-PlanNet-InsurancePlan.xlsx
@@ -143,7 +143,8 @@
     <t>plannet-PlanNet-InsurancePlan</t>
   </si>
   <si>
-    <t>PlanNet-Insurance Plan</t>
+    <t>A PlanNet-InsurancePlan is a discrete package of health insurance coverage benefits that are offered under a particular network type. A given payer’s products typically differ by network type and/or covered benefits. A plan pairs a product’s covered benefits with the particular cost sharing structure offered to a consumer. A given product may comprise multiple plans (i.e. each plan offers different cost sharing requirements for the same set of covered benefits).
+PlanNet-InsurancePlan describes a health insurance offering comprised of a list of covered benefits (i.e. the product), costs associated with those benefits (i.e. the plan), and additional information about the offering, such as who it is owned and administered by, a coverage area, contact information, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
